--- a/Colombia_emisiones_y_gdp.xlsx
+++ b/Colombia_emisiones_y_gdp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unaledu-my.sharepoint.com/personal/emquicazanr_unal_edu_co/Documents/Desktop/Courses I am taking/DS4A  MinTic/Team Project/Datasets posibles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{2A42C054-92E2-46D9-9894-D363DB17F1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{642D5645-F3D1-4976-9FE2-F089A81A877C}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{D38322B5-5F83-4073-BDAD-30F457D112B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA7E1A9E-E8A7-4BD2-943B-3AA97881FC3D}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{EC971057-DCCB-49C4-90B5-6D5851109298}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EC971057-DCCB-49C4-90B5-6D5851109298}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,6 +83,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -129,6 +130,8 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,17 +448,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C895B3C8-AA76-4C46-B2A8-2E3BAAB74FE6}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="9.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -506,8 +509,8 @@
       <c r="G2" s="3">
         <v>18.059999999999999</v>
       </c>
-      <c r="H2" s="3">
-        <v>253538205696</v>
+      <c r="H2" s="5">
+        <v>26371</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -532,8 +535,8 @@
       <c r="G3" s="3">
         <v>18.059999999999999</v>
       </c>
-      <c r="H3" s="3">
-        <v>259479420928</v>
+      <c r="H3" s="5">
+        <v>34170</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -558,8 +561,8 @@
       <c r="G4" s="3">
         <v>18.05</v>
       </c>
-      <c r="H4" s="3">
-        <v>270671757312</v>
+      <c r="H4" s="5">
+        <v>44200</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -584,8 +587,8 @@
       <c r="G5" s="3">
         <v>18.38</v>
       </c>
-      <c r="H5" s="3">
-        <v>286074437632</v>
+      <c r="H5" s="5">
+        <v>58932</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -610,8 +613,8 @@
       <c r="G6" s="3">
         <v>18.670000000000002</v>
       </c>
-      <c r="H6" s="3">
-        <v>300754567168</v>
+      <c r="H6" s="5">
+        <v>77147</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -636,8 +639,8 @@
       <c r="G7" s="3">
         <v>18.649999999999999</v>
       </c>
-      <c r="H7" s="3">
-        <v>316298592256</v>
+      <c r="H7" s="5">
+        <v>96403</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -662,8 +665,8 @@
       <c r="G8" s="3">
         <v>18.32</v>
       </c>
-      <c r="H8" s="3">
-        <v>322721906688</v>
+      <c r="H8" s="5">
+        <v>117184</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -688,8 +691,8 @@
       <c r="G9" s="3">
         <v>18.43</v>
       </c>
-      <c r="H9" s="3">
-        <v>333737754624</v>
+      <c r="H9" s="5">
+        <v>141383</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -714,8 +717,8 @@
       <c r="G10" s="3">
         <v>18.77</v>
       </c>
-      <c r="H10" s="3">
-        <v>335547990016</v>
+      <c r="H10" s="5">
+        <v>163598</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -740,8 +743,8 @@
       <c r="G11" s="3">
         <v>18.059999999999999</v>
       </c>
-      <c r="H11" s="3">
-        <v>321381171200</v>
+      <c r="H11" s="5">
+        <v>177038</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -766,8 +769,8 @@
       <c r="G12" s="3">
         <v>18.64</v>
       </c>
-      <c r="H12" s="3">
-        <v>330667819008</v>
+      <c r="H12" s="5">
+        <v>200762</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -792,8 +795,8 @@
       <c r="G13" s="3">
         <v>19.010000000000002</v>
       </c>
-      <c r="H13" s="3">
-        <v>336149970944</v>
+      <c r="H13" s="5">
+        <v>219063</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -818,8 +821,8 @@
       <c r="G14" s="3">
         <v>19.27</v>
       </c>
-      <c r="H14" s="3">
-        <v>344483168256</v>
+      <c r="H14" s="5">
+        <v>237506</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -844,8 +847,8 @@
       <c r="G15" s="3">
         <v>20.07</v>
       </c>
-      <c r="H15" s="3">
-        <v>357898059776</v>
+      <c r="H15" s="5">
+        <v>268144</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -870,8 +873,8 @@
       <c r="G16" s="3">
         <v>20.57</v>
       </c>
-      <c r="H16" s="3">
-        <v>376905891840</v>
+      <c r="H16" s="5">
+        <v>302515</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -896,8 +899,8 @@
       <c r="G17" s="3">
         <v>20.61</v>
       </c>
-      <c r="H17" s="3">
-        <v>394523869184</v>
+      <c r="H17" s="5">
+        <v>337958</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -922,8 +925,8 @@
       <c r="G18" s="3">
         <v>21.12</v>
       </c>
-      <c r="H18" s="3">
-        <v>420866916352</v>
+      <c r="H18" s="5">
+        <v>381604</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -948,8 +951,8 @@
       <c r="G19" s="3">
         <v>22.89</v>
       </c>
-      <c r="H19" s="3">
-        <v>449786937344</v>
+      <c r="H19" s="5">
+        <v>428506</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -974,8 +977,8 @@
       <c r="G20" s="3">
         <v>21.83</v>
       </c>
-      <c r="H20" s="3">
-        <v>465645797376</v>
+      <c r="H20" s="5">
+        <v>476554</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1000,8 +1003,8 @@
       <c r="G21" s="3">
         <v>21.99</v>
       </c>
-      <c r="H21" s="3">
-        <v>473234341888</v>
+      <c r="H21" s="5">
+        <v>501574</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1026,8 +1029,8 @@
       <c r="G22" s="3">
         <v>22.49</v>
       </c>
-      <c r="H22" s="3">
-        <v>491900633088</v>
+      <c r="H22" s="5">
+        <v>544060</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1052,8 +1055,8 @@
       <c r="G23" s="3">
         <v>21.75</v>
       </c>
-      <c r="H23" s="3">
-        <v>524200738816</v>
+      <c r="H23" s="5">
+        <v>619023</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1078,8 +1081,8 @@
       <c r="G24" s="3">
         <v>21.29</v>
       </c>
-      <c r="H24" s="3">
-        <v>545385086976</v>
+      <c r="H24" s="5">
+        <v>666507</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1104,8 +1107,8 @@
       <c r="G25" s="3">
         <v>19.84</v>
       </c>
-      <c r="H25" s="3">
-        <v>571946893312</v>
+      <c r="H25" s="5">
+        <v>714093</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1130,8 +1133,8 @@
       <c r="G26" s="3">
         <v>20.47</v>
       </c>
-      <c r="H26" s="3">
-        <v>597109833728</v>
+      <c r="H26" s="5">
+        <v>762903</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1156,8 +1159,8 @@
       <c r="G27" s="3">
         <v>19.940000000000001</v>
       </c>
-      <c r="H27" s="3">
-        <v>615339524096</v>
+      <c r="H27" s="5">
+        <v>804692</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1182,8 +1185,8 @@
       <c r="G28" s="3">
         <v>20.05</v>
       </c>
-      <c r="H28" s="3">
-        <v>627381370880</v>
+      <c r="H28" s="5">
+        <v>863782</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1208,8 +1211,8 @@
       <c r="G29" s="3">
         <v>21.17</v>
       </c>
-      <c r="H29" s="3">
-        <v>635907473408</v>
+      <c r="H29" s="5">
+        <v>920471</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1234,8 +1237,8 @@
       <c r="G30" s="3">
         <v>22.18</v>
       </c>
-      <c r="H30" s="3">
-        <v>651900551168</v>
+      <c r="H30" s="5">
+        <v>987791</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1250,6 +1253,9 @@
       </c>
       <c r="D31" s="3">
         <v>90.418999999999997</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1060068</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
